--- a/db/db_analysis/results/query_execution_times_4-8-2021-03-24-10-56-56.xlsx
+++ b/db/db_analysis/results/query_execution_times_4-8-2021-03-24-10-56-56.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsghrg/workarea/work/zhaw_repos/s8/ba/releo/db/db_analysis/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBDB642-4765-734C-9EE2-29EF62AD5869}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF288D4-A2DF-564E-95D8-4A3898BA6B38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30060" yWindow="500" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="query_execution_times_4-8-2021-" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <sheet name="7" sheetId="5" r:id="rId5"/>
     <sheet name="8" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'4'!$F$2:$F$13</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'4'!$G$2:$G$13</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'4'!$H$2:$H$13</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'4'!$F$2:$F$13</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'4'!$G$2:$G$13</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'4'!$H$2:$H$13</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'6'!$F$2:$F$61</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'6'!$G$2:$G$61</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'6'!$H$2:$H$61</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -12565,16 +12554,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>44761</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>29011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>594034</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>126688</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12606,16 +12595,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>96837</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>93662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>669925</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12648,8 +12637,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>560043</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>26643</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>142233</xdr:rowOff>
     </xdr:to>
@@ -12691,16 +12680,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3532187</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13209,9 +13198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G599"/>
   <sheetViews>
-    <sheetView topLeftCell="A598" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401:G599"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
@@ -13238,6 +13225,7 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:7" ht="22" customHeight="1"/>
     <row r="3" spans="1:7" ht="409.6">
       <c r="A3" t="s">
         <v>3</v>
@@ -20124,13 +20112,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="11" customWidth="1"/>
+    <col min="1" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
@@ -20485,13 +20475,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="AA34" sqref="AA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="11" customWidth="1"/>
+    <col min="1" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -21267,13 +21259,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView topLeftCell="A6" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="11" customWidth="1"/>
+    <col min="1" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -22876,13 +22868,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="11" customWidth="1"/>
+    <col min="1" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
